--- a/artfynd/A 27955-2021.xlsx
+++ b/artfynd/A 27955-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96997470</v>
+        <v>96997637</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540339.7901433307</v>
+        <v>540318.4948027555</v>
       </c>
       <c r="R2" t="n">
-        <v>6945337.195879548</v>
+        <v>6945610.198437067</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96997471</v>
+        <v>96997111</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>90669</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540403.0780395848</v>
+        <v>540285.420278896</v>
       </c>
       <c r="R3" t="n">
-        <v>6945210.07007421</v>
+        <v>6945753.778063174</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96997637</v>
+        <v>96997190</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>77259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540318.4948027555</v>
+        <v>540320.7145815691</v>
       </c>
       <c r="R4" t="n">
-        <v>6945610.198437067</v>
+        <v>6945654.846978122</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96997642</v>
+        <v>96997345</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540357.5588053473</v>
+        <v>540324.0749594209</v>
       </c>
       <c r="R5" t="n">
-        <v>6945353.514534771</v>
+        <v>6945719.289026539</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96997111</v>
+        <v>96997189</v>
       </c>
       <c r="B6" t="n">
-        <v>90669</v>
+        <v>77259</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540285.420278896</v>
+        <v>540324.0749594209</v>
       </c>
       <c r="R6" t="n">
-        <v>6945753.778063174</v>
+        <v>6945719.289026539</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96997190</v>
+        <v>96997467</v>
       </c>
       <c r="B7" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540320.7145815691</v>
+        <v>540321.0604783226</v>
       </c>
       <c r="R7" t="n">
-        <v>6945654.846978122</v>
+        <v>6945550.886808772</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96997345</v>
+        <v>96997638</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540324.0749594209</v>
+        <v>540321.0604783226</v>
       </c>
       <c r="R8" t="n">
-        <v>6945719.289026539</v>
+        <v>6945550.886808772</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96997641</v>
+        <v>96997344</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540387.8320511305</v>
+        <v>540239.4233446738</v>
       </c>
       <c r="R9" t="n">
-        <v>6945402.189333159</v>
+        <v>6945748.158169477</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96997643</v>
+        <v>96997470</v>
       </c>
       <c r="B10" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540338.9642116233</v>
+        <v>540339.7901433307</v>
       </c>
       <c r="R10" t="n">
-        <v>6945329.36484168</v>
+        <v>6945337.195879548</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96997135</v>
+        <v>96997471</v>
       </c>
       <c r="B11" t="n">
-        <v>90665</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540346.507806809</v>
+        <v>540403.0780395848</v>
       </c>
       <c r="R11" t="n">
-        <v>6945277.469942174</v>
+        <v>6945210.07007421</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96997189</v>
+        <v>96997642</v>
       </c>
       <c r="B12" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540324.0749594209</v>
+        <v>540357.5588053473</v>
       </c>
       <c r="R12" t="n">
-        <v>6945719.289026539</v>
+        <v>6945353.514534771</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96997647</v>
+        <v>96997641</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540376.8706205683</v>
+        <v>540387.8320511305</v>
       </c>
       <c r="R13" t="n">
-        <v>6945167.883105326</v>
+        <v>6945402.189333159</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96997469</v>
+        <v>96997643</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>540389.3095380173</v>
+        <v>540338.9642116233</v>
       </c>
       <c r="R14" t="n">
-        <v>6945432.110323969</v>
+        <v>6945329.36484168</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96997646</v>
+        <v>96997135</v>
       </c>
       <c r="B15" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,21 +2204,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540384.6907192031</v>
+        <v>540346.507806809</v>
       </c>
       <c r="R15" t="n">
-        <v>6945168.898715561</v>
+        <v>6945277.469942174</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96997644</v>
+        <v>96997647</v>
       </c>
       <c r="B16" t="n">
         <v>90653</v>
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>540341.1096913856</v>
+        <v>540376.8706205683</v>
       </c>
       <c r="R16" t="n">
-        <v>6945304.547811897</v>
+        <v>6945167.883105326</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96997645</v>
+        <v>96997469</v>
       </c>
       <c r="B17" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,25 +2432,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>540342.1656137862</v>
+        <v>540389.3095380173</v>
       </c>
       <c r="R17" t="n">
-        <v>6945293.519209918</v>
+        <v>6945432.110323969</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96997640</v>
+        <v>96997646</v>
       </c>
       <c r="B18" t="n">
         <v>90653</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540389.3095380173</v>
+        <v>540384.6907192031</v>
       </c>
       <c r="R18" t="n">
-        <v>6945432.110323969</v>
+        <v>6945168.898715561</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96997467</v>
+        <v>96997644</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2664,25 +2664,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540321.0604783226</v>
+        <v>540341.1096913856</v>
       </c>
       <c r="R19" t="n">
-        <v>6945550.886808772</v>
+        <v>6945304.547811897</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96997638</v>
+        <v>96997645</v>
       </c>
       <c r="B20" t="n">
         <v>90653</v>
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540321.0604783226</v>
+        <v>540342.1656137862</v>
       </c>
       <c r="R20" t="n">
-        <v>6945550.886808772</v>
+        <v>6945293.519209918</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96997344</v>
+        <v>96997640</v>
       </c>
       <c r="B21" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,25 +2896,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540239.4233446738</v>
+        <v>540389.3095380173</v>
       </c>
       <c r="R21" t="n">
-        <v>6945748.158169477</v>
+        <v>6945432.110323969</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 27955-2021.xlsx
+++ b/artfynd/A 27955-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96997637</v>
+        <v>96997470</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540318.4948027555</v>
+        <v>540339.7901433307</v>
       </c>
       <c r="R2" t="n">
-        <v>6945610.198437067</v>
+        <v>6945337.195879548</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96997111</v>
+        <v>96997471</v>
       </c>
       <c r="B3" t="n">
-        <v>90669</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540285.420278896</v>
+        <v>540403.0780395848</v>
       </c>
       <c r="R3" t="n">
-        <v>6945753.778063174</v>
+        <v>6945210.07007421</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96997190</v>
+        <v>96997637</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540320.7145815691</v>
+        <v>540318.4948027555</v>
       </c>
       <c r="R4" t="n">
-        <v>6945654.846978122</v>
+        <v>6945610.198437067</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96997345</v>
+        <v>96997642</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540324.0749594209</v>
+        <v>540357.5588053473</v>
       </c>
       <c r="R5" t="n">
-        <v>6945719.289026539</v>
+        <v>6945353.514534771</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96997189</v>
+        <v>96997111</v>
       </c>
       <c r="B6" t="n">
-        <v>77259</v>
+        <v>90669</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540324.0749594209</v>
+        <v>540285.420278896</v>
       </c>
       <c r="R6" t="n">
-        <v>6945719.289026539</v>
+        <v>6945753.778063174</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96997467</v>
+        <v>96997190</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540321.0604783226</v>
+        <v>540320.7145815691</v>
       </c>
       <c r="R7" t="n">
-        <v>6945550.886808772</v>
+        <v>6945654.846978122</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96997638</v>
+        <v>96997345</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540321.0604783226</v>
+        <v>540324.0749594209</v>
       </c>
       <c r="R8" t="n">
-        <v>6945550.886808772</v>
+        <v>6945719.289026539</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96997344</v>
+        <v>96997641</v>
       </c>
       <c r="B9" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540239.4233446738</v>
+        <v>540387.8320511305</v>
       </c>
       <c r="R9" t="n">
-        <v>6945748.158169477</v>
+        <v>6945402.189333159</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96997470</v>
+        <v>96997643</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540339.7901433307</v>
+        <v>540338.9642116233</v>
       </c>
       <c r="R10" t="n">
-        <v>6945337.195879548</v>
+        <v>6945329.36484168</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96997471</v>
+        <v>96997135</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>90665</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540403.0780395848</v>
+        <v>540346.507806809</v>
       </c>
       <c r="R11" t="n">
-        <v>6945210.07007421</v>
+        <v>6945277.469942174</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96997642</v>
+        <v>96997189</v>
       </c>
       <c r="B12" t="n">
-        <v>90653</v>
+        <v>77259</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540357.5588053473</v>
+        <v>540324.0749594209</v>
       </c>
       <c r="R12" t="n">
-        <v>6945353.514534771</v>
+        <v>6945719.289026539</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96997641</v>
+        <v>96997647</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540387.8320511305</v>
+        <v>540376.8706205683</v>
       </c>
       <c r="R13" t="n">
-        <v>6945402.189333159</v>
+        <v>6945167.883105326</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96997643</v>
+        <v>96997469</v>
       </c>
       <c r="B14" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>540338.9642116233</v>
+        <v>540389.3095380173</v>
       </c>
       <c r="R14" t="n">
-        <v>6945329.36484168</v>
+        <v>6945432.110323969</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96997135</v>
+        <v>96997646</v>
       </c>
       <c r="B15" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,21 +2204,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540346.507806809</v>
+        <v>540384.6907192031</v>
       </c>
       <c r="R15" t="n">
-        <v>6945277.469942174</v>
+        <v>6945168.898715561</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96997647</v>
+        <v>96997644</v>
       </c>
       <c r="B16" t="n">
         <v>90653</v>
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>540376.8706205683</v>
+        <v>540341.1096913856</v>
       </c>
       <c r="R16" t="n">
-        <v>6945167.883105326</v>
+        <v>6945304.547811897</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96997469</v>
+        <v>96997645</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,25 +2432,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>540389.3095380173</v>
+        <v>540342.1656137862</v>
       </c>
       <c r="R17" t="n">
-        <v>6945432.110323969</v>
+        <v>6945293.519209918</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96997646</v>
+        <v>96997640</v>
       </c>
       <c r="B18" t="n">
         <v>90653</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540384.6907192031</v>
+        <v>540389.3095380173</v>
       </c>
       <c r="R18" t="n">
-        <v>6945168.898715561</v>
+        <v>6945432.110323969</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96997644</v>
+        <v>96997467</v>
       </c>
       <c r="B19" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2664,25 +2664,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540341.1096913856</v>
+        <v>540321.0604783226</v>
       </c>
       <c r="R19" t="n">
-        <v>6945304.547811897</v>
+        <v>6945550.886808772</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96997645</v>
+        <v>96997638</v>
       </c>
       <c r="B20" t="n">
         <v>90653</v>
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540342.1656137862</v>
+        <v>540321.0604783226</v>
       </c>
       <c r="R20" t="n">
-        <v>6945293.519209918</v>
+        <v>6945550.886808772</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96997640</v>
+        <v>96997344</v>
       </c>
       <c r="B21" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,25 +2896,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540389.3095380173</v>
+        <v>540239.4233446738</v>
       </c>
       <c r="R21" t="n">
-        <v>6945432.110323969</v>
+        <v>6945748.158169477</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
